--- a/Programma/Resources/data.xlsx
+++ b/Programma/Resources/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DirtyJoe\Desktop\Programma\Programma\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C284EB-DBEB-4206-BE58-8483E20283AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0F0B29-F846-4AD2-A298-13834CB4288B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="780" windowWidth="21600" windowHeight="11835" xr2:uid="{00BCBCCF-F4C5-491F-9A0A-713DB10F5DF5}"/>
   </bookViews>
@@ -30,28 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
-  <si>
-    <t>№</t>
-  </si>
-  <si>
-    <t>ФИО</t>
-  </si>
-  <si>
-    <t>Отделение/Подразделение</t>
-  </si>
-  <si>
-    <t>Дата выпуска</t>
-  </si>
-  <si>
-    <t>Дата окончания</t>
-  </si>
-  <si>
-    <t>Дата установки</t>
-  </si>
-  <si>
-    <t>Статус</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Карасев Леонид Ильич</t>
   </si>
@@ -113,7 +92,13 @@
     <t>2Хирургия</t>
   </si>
   <si>
-    <t>очко пробито</t>
+    <t>Подан</t>
+  </si>
+  <si>
+    <t>Получен</t>
+  </si>
+  <si>
+    <t>Активен</t>
   </si>
 </sst>
 </file>
@@ -138,7 +123,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -146,28 +131,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -483,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A860D5-A76E-434A-A8EC-110B24A30E50}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,256 +468,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1">
+        <v>45631</v>
+      </c>
+      <c r="E1" s="1">
+        <v>45336</v>
+      </c>
+      <c r="F1" s="1">
+        <v>45109</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45631</v>
-      </c>
-      <c r="E2" s="2">
-        <v>45336</v>
-      </c>
-      <c r="F2" s="2">
-        <v>45109</v>
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45632</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45337</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45110</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45632</v>
-      </c>
-      <c r="E3" s="2">
-        <v>45337</v>
-      </c>
-      <c r="F3" s="2">
-        <v>45110</v>
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45633</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45338</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45111</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45633</v>
-      </c>
-      <c r="E4" s="2">
-        <v>45338</v>
-      </c>
-      <c r="F4" s="2">
-        <v>45111</v>
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45634</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45339</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45112</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
       <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45634</v>
-      </c>
-      <c r="E5" s="2">
-        <v>45339</v>
-      </c>
-      <c r="F5" s="2">
-        <v>45112</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45635</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45340</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45113</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
       <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45636</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45114</v>
+      </c>
+      <c r="G6" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" s="2">
-        <v>45635</v>
-      </c>
-      <c r="E6" s="2">
-        <v>45340</v>
-      </c>
-      <c r="F6" s="2">
-        <v>45113</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
       <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45637</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45115</v>
+      </c>
+      <c r="G7" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" s="2">
-        <v>45636</v>
-      </c>
-      <c r="E7" s="2">
-        <v>45341</v>
-      </c>
-      <c r="F7" s="2">
-        <v>45114</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2">
-        <v>45637</v>
-      </c>
-      <c r="E8" s="2">
-        <v>45342</v>
-      </c>
-      <c r="F8" s="2">
-        <v>45115</v>
+        <v>17</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45638</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F8" s="1">
+        <v>45116</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
       <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2">
-        <v>45638</v>
-      </c>
-      <c r="E9" s="2">
-        <v>45343</v>
-      </c>
-      <c r="F9" s="2">
-        <v>45116</v>
+        <v>18</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45639</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F9" s="1">
+        <v>45117</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
       <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2">
-        <v>45639</v>
-      </c>
-      <c r="E10" s="2">
-        <v>45344</v>
-      </c>
-      <c r="F10" s="2">
-        <v>45117</v>
+        <v>19</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45640</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F10" s="1">
+        <v>45118</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="2">
-        <v>45640</v>
-      </c>
-      <c r="E11" s="2">
-        <v>45345</v>
-      </c>
-      <c r="F11" s="2">
-        <v>45118</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
